--- a/CucumberBDDFrame/SampleData/SampleExcel.xlsx
+++ b/CucumberBDDFrame/SampleData/SampleExcel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/Documents/Automation/ExcelCucumberBDD/src/main/java/SampleData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/Documents/Automation/NewExcelUtil2020ApachePOI/src/main/java/com/excel/lib/util/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7277D6-5E06-2D49-9AFA-6C5F0C5AE606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EDC487-A25B-6344-A7BB-05BC697E3246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="3160" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{B3C3A34B-9000-5140-B2B8-B8E935779AE3}"/>
+    <workbookView xWindow="5960" yWindow="3160" windowWidth="27640" windowHeight="16940" xr2:uid="{B3C3A34B-9000-5140-B2B8-B8E935779AE3}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -431,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22A79C9-43DF-5741-AF91-7CDA6F3D208E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -533,16 +532,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C27B08-A59F-A549-929A-985DD76DC563}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>